--- a/templates/ordonnance.xlsx
+++ b/templates/ordonnance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarek\OneDrive\Desktop\ord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarek\TerminalPMS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB523930-8BE7-4272-9A44-51AB9E5E5DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF4E3E7-FCD5-47C1-A557-E25EDB5CDB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -171,6 +171,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +510,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="K13" sqref="K13:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,11 +751,11 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -766,11 +769,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -784,11 +787,11 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -802,11 +805,11 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -820,11 +823,11 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -838,11 +841,11 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -856,11 +859,11 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -874,11 +877,11 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -892,11 +895,11 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1073,7 +1076,7 @@
     <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="J30:O30"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="J29:O29"/>
@@ -1082,6 +1085,7 @@
     <mergeCell ref="B13:G15"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B16:G17"/>
+    <mergeCell ref="K13:O21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.39583333333333331" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
